--- a/output/instance_SMALL_scenario_2/dual_variables_iteration9.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration9.xlsx
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8805171008124892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -552,12 +552,12 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.450244719321548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.65780691095505</v>
+        <v>0.0341205504697939</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.796610412754621</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1668880760804229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -728,12 +728,12 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1.042026545059574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9933989580567495</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>0.06836140242543505</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.9640031548732854</v>
       </c>
     </row>
     <row r="41">
@@ -917,10 +917,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5285558625532467</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1.013194205666437</v>
       </c>
     </row>
     <row r="62">
@@ -957,7 +957,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2154494480560499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1503244.670740697</v>
+        <v>8263140.549510287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2547792.194955066</v>
+        <v>8152040.169620151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>6227793.953838659</v>
       </c>
     </row>
   </sheetData>

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration9.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration9.xlsx
@@ -552,12 +552,12 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.450244719321548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0341205504697939</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1.364433831044545</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.3976231535489507</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.06836140242543505</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9640031548732854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.94746437695053</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.5079237467546113</v>
       </c>
     </row>
     <row r="50">
@@ -837,7 +837,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>0.2061950664522399</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>0.05182702263477305</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1.013194205666437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0.3203540442204794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.2191222914782864</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8263140.549510287</v>
+        <v>2229019.522400185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8152040.169620151</v>
+        <v>1994659.418273741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6227793.953838659</v>
+        <v>9323831.392055079</v>
       </c>
     </row>
   </sheetData>
